--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H2">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N2">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O2">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P2">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q2">
-        <v>3712.869238469607</v>
+        <v>14458.69453193536</v>
       </c>
       <c r="R2">
-        <v>3712.869238469607</v>
+        <v>130128.2507874182</v>
       </c>
       <c r="S2">
-        <v>0.1595760775460546</v>
+        <v>0.2772265590639162</v>
       </c>
       <c r="T2">
-        <v>0.1595760775460546</v>
+        <v>0.2772265590639162</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H3">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N3">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O3">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P3">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q3">
-        <v>3066.132144776812</v>
+        <v>4076.753099609267</v>
       </c>
       <c r="R3">
-        <v>3066.132144776812</v>
+        <v>36690.7778964834</v>
       </c>
       <c r="S3">
-        <v>0.1317798471952193</v>
+        <v>0.07816640924680712</v>
       </c>
       <c r="T3">
-        <v>0.1317798471952193</v>
+        <v>0.07816640924680714</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H4">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N4">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O4">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P4">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q4">
-        <v>333.6662786424998</v>
+        <v>475.8789706753207</v>
       </c>
       <c r="R4">
-        <v>333.6662786424998</v>
+        <v>4282.910736077886</v>
       </c>
       <c r="S4">
-        <v>0.01434070325005733</v>
+        <v>0.009124356924465608</v>
       </c>
       <c r="T4">
-        <v>0.01434070325005733</v>
+        <v>0.00912435692446561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H5">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.14026546315054</v>
+        <v>8.915377333333334</v>
       </c>
       <c r="N5">
-        <v>8.14026546315054</v>
+        <v>26.746132</v>
       </c>
       <c r="O5">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621411</v>
       </c>
       <c r="P5">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621412</v>
       </c>
       <c r="Q5">
-        <v>589.976841976218</v>
+        <v>858.7357956181573</v>
       </c>
       <c r="R5">
-        <v>589.976841976218</v>
+        <v>7728.622160563416</v>
       </c>
       <c r="S5">
-        <v>0.02535672124138126</v>
+        <v>0.01646513585568988</v>
       </c>
       <c r="T5">
-        <v>0.02535672124138126</v>
+        <v>0.01646513585568989</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H6">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N6">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O6">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P6">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q6">
-        <v>903.1500861192093</v>
+        <v>2771.729989259306</v>
       </c>
       <c r="R6">
-        <v>903.1500861192093</v>
+        <v>24945.56990333376</v>
       </c>
       <c r="S6">
-        <v>0.03881665066063288</v>
+        <v>0.05314429777041354</v>
       </c>
       <c r="T6">
-        <v>0.03881665066063288</v>
+        <v>0.05314429777041355</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H7">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N7">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O7">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P7">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q7">
-        <v>745.832221053244</v>
+        <v>781.5130750590889</v>
       </c>
       <c r="R7">
-        <v>745.832221053244</v>
+        <v>7033.617675531799</v>
       </c>
       <c r="S7">
-        <v>0.03205525772628494</v>
+        <v>0.01498449117820119</v>
       </c>
       <c r="T7">
-        <v>0.03205525772628494</v>
+        <v>0.0149844911782012</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H8">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N8">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O8">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P8">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q8">
-        <v>81.16384093700599</v>
+        <v>91.22594099801356</v>
       </c>
       <c r="R8">
-        <v>81.16384093700599</v>
+        <v>821.0334689821219</v>
       </c>
       <c r="S8">
-        <v>0.003488355377858084</v>
+        <v>0.001749138116472949</v>
       </c>
       <c r="T8">
-        <v>0.003488355377858084</v>
+        <v>0.001749138116472949</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H9">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.14026546315054</v>
+        <v>8.915377333333334</v>
       </c>
       <c r="N9">
-        <v>8.14026546315054</v>
+        <v>26.746132</v>
       </c>
       <c r="O9">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621411</v>
       </c>
       <c r="P9">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621412</v>
       </c>
       <c r="Q9">
-        <v>143.511015717534</v>
+        <v>164.6195479341591</v>
       </c>
       <c r="R9">
-        <v>143.511015717534</v>
+        <v>1481.575931407432</v>
       </c>
       <c r="S9">
-        <v>0.006167985862678456</v>
+        <v>0.003156364547825856</v>
       </c>
       <c r="T9">
-        <v>0.006167985862678456</v>
+        <v>0.003156364547825857</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H10">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N10">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O10">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P10">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q10">
-        <v>5859.408748698913</v>
+        <v>18449.91254090998</v>
       </c>
       <c r="R10">
-        <v>5859.408748698913</v>
+        <v>166049.2128681898</v>
       </c>
       <c r="S10">
-        <v>0.2518325868222095</v>
+        <v>0.3537529448076686</v>
       </c>
       <c r="T10">
-        <v>0.2518325868222095</v>
+        <v>0.3537529448076686</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H11">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N11">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O11">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P11">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q11">
-        <v>4838.770330941531</v>
+        <v>5202.1112952171</v>
       </c>
       <c r="R11">
-        <v>4838.770330941531</v>
+        <v>46819.00165695389</v>
       </c>
       <c r="S11">
-        <v>0.2079663839376536</v>
+        <v>0.09974368094264793</v>
       </c>
       <c r="T11">
-        <v>0.2079663839376536</v>
+        <v>0.09974368094264795</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H12">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N12">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O12">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P12">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q12">
-        <v>526.5704194391537</v>
+        <v>607.241917285509</v>
       </c>
       <c r="R12">
-        <v>526.5704194391537</v>
+        <v>5465.177255569581</v>
       </c>
       <c r="S12">
-        <v>0.02263156515593209</v>
+        <v>0.01164306963374952</v>
       </c>
       <c r="T12">
-        <v>0.02263156515593209</v>
+        <v>0.01164306963374952</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H13">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.14026546315054</v>
+        <v>8.915377333333334</v>
       </c>
       <c r="N13">
-        <v>8.14026546315054</v>
+        <v>26.746132</v>
       </c>
       <c r="O13">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621411</v>
       </c>
       <c r="P13">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621412</v>
       </c>
       <c r="Q13">
-        <v>931.06308016118</v>
+        <v>1095.783598575204</v>
       </c>
       <c r="R13">
-        <v>931.06308016118</v>
+        <v>9862.052387176835</v>
       </c>
       <c r="S13">
-        <v>0.04001632827266214</v>
+        <v>0.02101021747438612</v>
       </c>
       <c r="T13">
-        <v>0.04001632827266214</v>
+        <v>0.02101021747438613</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H14">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.2286908243197</v>
+        <v>150.1098686666667</v>
       </c>
       <c r="N14">
-        <v>51.2286908243197</v>
+        <v>450.329606</v>
       </c>
       <c r="O14">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660995</v>
       </c>
       <c r="P14">
-        <v>0.4820252624415567</v>
+        <v>0.7276622610660997</v>
       </c>
       <c r="Q14">
-        <v>739.891895759503</v>
+        <v>2270.739453426633</v>
       </c>
       <c r="R14">
-        <v>739.891895759503</v>
+        <v>20436.65508083969</v>
       </c>
       <c r="S14">
-        <v>0.0317999474126598</v>
+        <v>0.0435384594241013</v>
       </c>
       <c r="T14">
-        <v>0.0317999474126598</v>
+        <v>0.04353845942410131</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H15">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.3052700170026</v>
+        <v>42.32476666666667</v>
       </c>
       <c r="N15">
-        <v>42.3052700170026</v>
+        <v>126.9743</v>
       </c>
       <c r="O15">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258123</v>
       </c>
       <c r="P15">
-        <v>0.398062268515475</v>
+        <v>0.2051706239258124</v>
       </c>
       <c r="Q15">
-        <v>611.0116407393743</v>
+        <v>640.2544907989667</v>
       </c>
       <c r="R15">
-        <v>611.0116407393743</v>
+        <v>5762.2904171907</v>
       </c>
       <c r="S15">
-        <v>0.02626077965631716</v>
+        <v>0.0122760425581561</v>
       </c>
       <c r="T15">
-        <v>0.02626077965631716</v>
+        <v>0.0122760425581561</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H16">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.60379440513869</v>
+        <v>4.940565666666667</v>
       </c>
       <c r="N16">
-        <v>4.60379440513869</v>
+        <v>14.821697</v>
       </c>
       <c r="O16">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="P16">
-        <v>0.04331840557811907</v>
+        <v>0.02394954586187395</v>
       </c>
       <c r="Q16">
-        <v>66.49223541133297</v>
+        <v>74.73684096318368</v>
       </c>
       <c r="R16">
-        <v>66.49223541133297</v>
+        <v>672.631568668653</v>
       </c>
       <c r="S16">
-        <v>0.002857781794271568</v>
+        <v>0.001432981187185868</v>
       </c>
       <c r="T16">
-        <v>0.002857781794271568</v>
+        <v>0.001432981187185868</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H17">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.14026546315054</v>
+        <v>8.915377333333334</v>
       </c>
       <c r="N17">
-        <v>8.14026546315054</v>
+        <v>26.746132</v>
       </c>
       <c r="O17">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621411</v>
       </c>
       <c r="P17">
-        <v>0.07659406346484918</v>
+        <v>0.04321756914621412</v>
       </c>
       <c r="Q17">
-        <v>117.5692048459847</v>
+        <v>134.8645444353853</v>
       </c>
       <c r="R17">
-        <v>117.5692048459847</v>
+        <v>1213.780899918468</v>
       </c>
       <c r="S17">
-        <v>0.005053028088127324</v>
+        <v>0.002585851268312254</v>
       </c>
       <c r="T17">
-        <v>0.005053028088127324</v>
+        <v>0.002585851268312254</v>
       </c>
     </row>
   </sheetData>
